--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Payment-Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Luong" r:id="rId3" sheetId="1"/>
-    <sheet name="Chi Phi" r:id="rId4" sheetId="2"/>
-    <sheet name="Ngan Hang" r:id="rId5" sheetId="3"/>
-    <sheet name="Lai No Hang Thang" r:id="rId6" sheetId="4"/>
-    <sheet name="Cac Khoan No" r:id="rId7" sheetId="5"/>
+    <sheet name="Luong" sheetId="1" r:id="rId1"/>
+    <sheet name="Chi Phi" sheetId="2" r:id="rId2"/>
+    <sheet name="Ngan Hang" sheetId="3" r:id="rId3"/>
+    <sheet name="Lai No Hang Thang" sheetId="4" r:id="rId4"/>
+    <sheet name="Cac Khoan No" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -33,10 +40,13 @@
     <t>Linh hoạt</t>
   </si>
   <si>
-    <t>6/2023</t>
-  </si>
-  <si>
-    <t>5/2024</t>
+    <t>Phần trăm lãi</t>
+  </si>
+  <si>
+    <t>11/2022</t>
+  </si>
+  <si>
+    <t>5/2023</t>
   </si>
   <si>
     <t>Cố định</t>
@@ -78,9 +88,6 @@
     <t>Số tiền</t>
   </si>
   <si>
-    <t>Phần trăm lãi</t>
-  </si>
-  <si>
     <t>Tháng trả</t>
   </si>
   <si>
@@ -90,70 +97,96 @@
     <t>Tổng cộng</t>
   </si>
   <si>
+    <t>8/2022</t>
+  </si>
+  <si>
+    <t>Tổng lãi</t>
+  </si>
+  <si>
+    <t>7/2022</t>
+  </si>
+  <si>
     <t>9/2022</t>
   </si>
   <si>
-    <t>Tổng lãi</t>
-  </si>
-  <si>
-    <t>7/2022</t>
+    <t>10/2022</t>
+  </si>
+  <si>
+    <t>12/2022</t>
+  </si>
+  <si>
+    <t>1/2023</t>
+  </si>
+  <si>
+    <t>2/2023</t>
+  </si>
+  <si>
+    <t>3/2023</t>
+  </si>
+  <si>
+    <t>4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -170,167 +203,829 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.6E8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.0E7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>80000000</v>
+      </c>
+      <c r="C2">
+        <v>40000000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>80000000</v>
+      </c>
+      <c r="C3">
+        <v>40000000</v>
+      </c>
+      <c r="D3">
+        <v>21600000</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>80000000</v>
+      </c>
+      <c r="C4">
+        <v>40000000</v>
+      </c>
+      <c r="D4">
+        <v>41600000</v>
+      </c>
+      <c r="E4">
+        <v>86920000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>80000000</v>
+      </c>
+      <c r="C5">
+        <v>40000000</v>
+      </c>
+      <c r="D5">
+        <v>39600000</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E13" si="0">B5+E4-J4+K5-L5</f>
+        <v>166920000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>80000000</v>
+      </c>
+      <c r="C6">
+        <v>40000000</v>
+      </c>
+      <c r="D6">
+        <v>55600000</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>246920000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>80000000</v>
+      </c>
+      <c r="C7">
+        <v>40000000</v>
+      </c>
+      <c r="D7">
+        <v>77200000</v>
+      </c>
+      <c r="E7" s="6">
+        <f>B7+E6-J6+K7-L7</f>
+        <v>326920000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>80000000</v>
+      </c>
+      <c r="C8">
+        <v>40000000</v>
+      </c>
+      <c r="D8">
+        <v>75200000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>406920000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>80000000</v>
+      </c>
+      <c r="C9">
+        <v>40000000</v>
+      </c>
+      <c r="D9">
+        <v>91200000</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>486920000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>80000000</v>
+      </c>
+      <c r="C10">
+        <v>40000000</v>
+      </c>
+      <c r="D10">
+        <v>105200000</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>566920000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>80000000</v>
+      </c>
+      <c r="C11">
+        <v>40000000</v>
+      </c>
+      <c r="D11">
+        <v>107200000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>646920000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>80000000</v>
+      </c>
+      <c r="C12">
+        <v>40000000</v>
+      </c>
+      <c r="D12">
+        <v>127200000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>726920000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>80000000</v>
+      </c>
+      <c r="C13">
+        <v>40000000</v>
+      </c>
+      <c r="D13">
+        <v>145200000</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>806920000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.33203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.4375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.17578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8000000.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3000000.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5000000.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5000000.0</v>
+      <c r="B2">
+        <v>4000000</v>
+      </c>
+      <c r="C2">
+        <v>4000000</v>
+      </c>
+      <c r="D2">
+        <v>4000000</v>
+      </c>
+      <c r="E2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>4000000</v>
+      </c>
+      <c r="C3">
+        <v>4000000</v>
+      </c>
+      <c r="D3">
+        <v>4000000</v>
+      </c>
+      <c r="E3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>4000000</v>
+      </c>
+      <c r="C4">
+        <v>4000000</v>
+      </c>
+      <c r="D4">
+        <v>4000000</v>
+      </c>
+      <c r="E4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>4000000</v>
+      </c>
+      <c r="C5">
+        <v>4000000</v>
+      </c>
+      <c r="D5">
+        <v>4000000</v>
+      </c>
+      <c r="E5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4000000</v>
+      </c>
+      <c r="C6">
+        <v>4000000</v>
+      </c>
+      <c r="D6">
+        <v>4000000</v>
+      </c>
+      <c r="E6">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4000000</v>
+      </c>
+      <c r="C7">
+        <v>4000000</v>
+      </c>
+      <c r="D7">
+        <v>4000000</v>
+      </c>
+      <c r="E7">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>4000000</v>
+      </c>
+      <c r="C8">
+        <v>4000000</v>
+      </c>
+      <c r="D8">
+        <v>4000000</v>
+      </c>
+      <c r="E8">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>4000000</v>
+      </c>
+      <c r="C9">
+        <v>4000000</v>
+      </c>
+      <c r="D9">
+        <v>4000000</v>
+      </c>
+      <c r="E9">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>4000000</v>
+      </c>
+      <c r="C10">
+        <v>4000000</v>
+      </c>
+      <c r="D10">
+        <v>4000000</v>
+      </c>
+      <c r="E10">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>4000000</v>
+      </c>
+      <c r="C11">
+        <v>4000000</v>
+      </c>
+      <c r="D11">
+        <v>4000000</v>
+      </c>
+      <c r="E11">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>4000000</v>
+      </c>
+      <c r="C12">
+        <v>4000000</v>
+      </c>
+      <c r="D12">
+        <v>4000000</v>
+      </c>
+      <c r="E12">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>4000000</v>
+      </c>
+      <c r="C13">
+        <v>4000000</v>
+      </c>
+      <c r="D13">
+        <v>4000000</v>
+      </c>
+      <c r="E13">
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.0625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.4609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.6484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.31640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>21</v>
@@ -342,83 +1037,210 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.6E8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.0</v>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>80000000</v>
+      </c>
+      <c r="D2">
+        <v>2.4</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="n">
-        <v>8000000.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.68E8</v>
+      <c r="F2">
+        <v>1920000</v>
+      </c>
+      <c r="G2">
+        <v>81920000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>75000000</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3750000</v>
+      </c>
+      <c r="G3">
+        <v>78750000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0E7</v>
+      <c r="B3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>6000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.55078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,42 +1256,48 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.0E8</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>200000000</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.0E8</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>500000000</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.0</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>Tổng lãi</t>
+  </si>
+  <si>
+    <t>7/2022</t>
+  </si>
+  <si>
+    <t>9/2022</t>
+  </si>
+  <si>
+    <t>10/2022</t>
+  </si>
+  <si>
+    <t>12/2022</t>
+  </si>
+  <si>
+    <t>1/2023</t>
+  </si>
+  <si>
+    <t>2/2023</t>
+  </si>
+  <si>
+    <t>3/2023</t>
+  </si>
+  <si>
+    <t>4/2023</t>
   </si>
 </sst>
 </file>
@@ -101,13 +125,217 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="40">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -170,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" horizontal="center"/>
@@ -185,6 +413,108 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -193,16 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.07421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -238,6 +568,193 @@
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16E7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.16E7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.692E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.96E7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.6692E8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.56E7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.4692E8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.72E7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0567E8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.52E7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.8567E8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.92E7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.6567E8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.232E8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.4567E8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.272E8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.2567E8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.272E8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.0567E8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.0E7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.512E8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.8567E8</v>
       </c>
     </row>
   </sheetData>
@@ -247,13 +764,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.33203125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.4375" customWidth="true" bestFit="true"/>
@@ -294,6 +811,193 @@
         <v>4000000.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.0E7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -301,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,6 +1066,29 @@
         <v>8.192E7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.5E7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3750000.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.875E7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -369,14 +1096,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -393,6 +1120,94 @@
       </c>
       <c r="B2" t="n">
         <v>2400000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.6E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8000000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2400000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.6E7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.0E7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0E7</v>
       </c>
     </row>
   </sheetData>

--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -16,13 +16,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Số tiền nợ</t>
+  </si>
+  <si>
+    <t>Hạn trả</t>
+  </si>
+  <si>
+    <t>Chu kỳ</t>
+  </si>
+  <si>
+    <t>Linh hoạt</t>
+  </si>
+  <si>
+    <t>Phần trăm lãi</t>
+  </si>
+  <si>
+    <t>6/2023</t>
+  </si>
+  <si>
+    <t>3/2034</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Lương vợ chồng</t>
+  </si>
+  <si>
+    <t>Lương chung</t>
+  </si>
+  <si>
+    <t>Lương dư</t>
+  </si>
+  <si>
+    <t>Tiền để trả nợ</t>
+  </si>
+  <si>
+    <t>6/2022</t>
+  </si>
+  <si>
+    <t>Tiền điện</t>
+  </si>
+  <si>
+    <t>Tiền nước</t>
+  </si>
+  <si>
+    <t>Ăn uống</t>
+  </si>
+  <si>
+    <t>Chi phí khác</t>
+  </si>
+  <si>
+    <t>Tổng lãi</t>
+  </si>
+  <si>
+    <t>Tháng gửi</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Tháng trả</t>
+  </si>
+  <si>
+    <t>Chu kỳ lãi</t>
+  </si>
+  <si>
+    <t>Tiền lãi</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>7/2022</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -30,13 +109,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,68 +170,316 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.2109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.12E8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.9E7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.41796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.33203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.4375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.17578125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3000000.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000000.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5000000.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6000000.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.4609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.6484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.33203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.31640625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.12E8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.12000004E8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.9609375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8200000.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.55078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.46875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.4609375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.3E8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.2E8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/20120359_student_hcmus_edu_vn/Documents/HCMUS/year 2/hk2/oop/TH/Java/Project/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_EB6746752413582B47C4940E13524769328CDABB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AD2FFB-AD55-4E35-A8FE-9899E50AF31E}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="660" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Luong" r:id="rId3" sheetId="1"/>
-    <sheet name="Chi Phi" r:id="rId4" sheetId="2"/>
-    <sheet name="Ngan Hang" r:id="rId5" sheetId="3"/>
-    <sheet name="Lai No Hang Thang" r:id="rId6" sheetId="4"/>
-    <sheet name="Cac Khoan No" r:id="rId7" sheetId="5"/>
+    <sheet name="Luong" sheetId="1" r:id="rId1"/>
+    <sheet name="Chi Phi" sheetId="2" r:id="rId2"/>
+    <sheet name="Ngan Hang" sheetId="3" r:id="rId3"/>
+    <sheet name="Lai No Hang Thang" sheetId="4" r:id="rId4"/>
+    <sheet name="Cac Khoan No" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -39,7 +47,7 @@
     <t>6/2023</t>
   </si>
   <si>
-    <t>3/2034</t>
+    <t>6/2024</t>
   </si>
   <si>
     <t>Tháng</t>
@@ -93,21 +101,132 @@
     <t>Tổng cộng</t>
   </si>
   <si>
+    <t>10/2023</t>
+  </si>
+  <si>
+    <t>Cố định</t>
+  </si>
+  <si>
     <t>7/2022</t>
+  </si>
+  <si>
+    <t>12/2022</t>
+  </si>
+  <si>
+    <t>8/2022</t>
+  </si>
+  <si>
+    <t>10/2022</t>
+  </si>
+  <si>
+    <t>9/2022</t>
+  </si>
+  <si>
+    <t>5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6">
-    <font>
-      <sz val="11.0"/>
+  <fonts count="21" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -145,15 +264,15 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -170,43 +289,398 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.41015625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.2109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.046875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.30078125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -223,44 +697,114 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.12E8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.9E7</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>100000000</v>
+      </c>
+      <c r="C2">
+        <v>74000000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.19E8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.5E7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.4E7</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.6E7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.5E7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.9E7</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6E7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.2E7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.8E7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.1E8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.5E7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.22E7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.32000009E8</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.33203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.4375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.17578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.41796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.4375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.17578125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -277,47 +821,117 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>3000000.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2000000.0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>4000000</v>
+      </c>
+      <c r="C2">
+        <v>6000000</v>
+      </c>
+      <c r="D2">
+        <v>7000000</v>
+      </c>
+      <c r="E2">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
         <v>5000000.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C3" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5000000.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>6000000.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5000000.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7000000.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8000000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4000000.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7000000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7000000.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8000000.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9000000.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4000000.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.0625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.4609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.6484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="10.734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.33203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.734375"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.66015625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.07421875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.4609375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6484375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.84375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.31640625"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -343,50 +957,128 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.12E8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.0</v>
+      <c r="C2">
+        <v>100000000</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1679616</v>
+      </c>
+      <c r="H2">
+        <v>101679616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.19E8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.19000006E8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.6E7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.6000009E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.12000004E8</v>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.1E8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.10000049E8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.95703125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -394,36 +1086,70 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>8200000.0</v>
+      <c r="B2">
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4800000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.55078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.46875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.4609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,43 +1169,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.3E8</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120000000</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.0</v>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.2E8</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>200000000</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
+      <c r="D3">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OutPut.xlsx
+++ b/OutPut.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -36,12 +36,12 @@
     <t>Phần trăm lãi</t>
   </si>
   <si>
+    <t>11/2022</t>
+  </si>
+  <si>
     <t>6/2023</t>
   </si>
   <si>
-    <t>6/2024</t>
-  </si>
-  <si>
     <t>Cố định</t>
   </si>
   <si>
@@ -108,10 +108,19 @@
     <t>8/2022</t>
   </si>
   <si>
+    <t>1/2023</t>
+  </si>
+  <si>
     <t>9/2022</t>
   </si>
   <si>
     <t>2/2023</t>
+  </si>
+  <si>
+    <t>3/2023</t>
+  </si>
+  <si>
+    <t>4/2023</t>
   </si>
   <si>
     <t>5/2023</t>
@@ -122,13 +131,145 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="44">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -287,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" horizontal="center"/>
@@ -350,6 +491,72 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -358,17 +565,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.578125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.41015625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.2109375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.07421875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.30078125"/>
+    <col min="1" max="1" width="8.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.41015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.2109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -393,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>1.18E8</v>
+        <v>1.2E8</v>
       </c>
       <c r="C2" t="n">
-        <v>7.5E7</v>
+        <v>6.0E7</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -410,13 +617,13 @@
         <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3E8</v>
+        <v>1.2E8</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3E7</v>
+        <v>6.0E7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.32E7</v>
+        <v>2.2E7</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -427,33 +634,33 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>8.8E7</v>
+        <v>1.2E8</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5E7</v>
+        <v>6.0E7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.52E7</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>7.5E7</v>
+        <v>1.2E8</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4E7</v>
+        <v>6.0E7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.082E8</v>
+        <v>3.36E7</v>
       </c>
       <c r="E5" t="n">
-        <v>8000000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="6">
@@ -461,16 +668,152 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>1.17E8</v>
+        <v>1.2E8</v>
       </c>
       <c r="C6" t="n">
-        <v>4.2E7</v>
+        <v>6.0E7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.392E8</v>
+        <v>6.96E7</v>
       </c>
       <c r="E6" t="n">
-        <v>4.436E9</v>
+        <v>3.048E8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.2E8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.0E7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.056E8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.048E8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.2E8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.0E7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.3968E8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.349E8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2E8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0E7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.6168E8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.761E8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0E8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.0E7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.1928E8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.961E8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.0E7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.5E7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.4928E8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.961E8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3E8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.5E7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.7628E8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.861E8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.4E7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.2E7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.1528E8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.1161E9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.2E8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.0E7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.2248E8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.401E8</v>
       </c>
     </row>
   </sheetData>
@@ -480,17 +823,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.578125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.41796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.4375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.17578125"/>
+    <col min="1" max="1" width="8.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.41796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.33203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -515,16 +858,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>7000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7000000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="3">
@@ -532,16 +875,16 @@
         <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>3000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C3" t="n">
-        <v>7000000.0</v>
+        <v>6.0E7</v>
       </c>
       <c r="D3" t="n">
-        <v>4000000.0</v>
+        <v>6.0E7</v>
       </c>
       <c r="E3" t="n">
-        <v>7000000.0</v>
+        <v>6.0E7</v>
       </c>
     </row>
     <row r="4">
@@ -552,30 +895,30 @@
         <v>6000000.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D4" t="n">
-        <v>9000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0E7</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>5000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>8000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3000000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="6">
@@ -583,16 +926,152 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>4000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C6" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6000000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6000000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6000000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>600000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="n">
         <v>5000000.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>7000000.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8000000.0</v>
+      <c r="C10" t="n">
+        <v>5000000.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5000000.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5000000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4500000.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4500000.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4500000.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4500000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6500000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6500000.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6500000.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6500000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1200000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1200000.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1200000.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1200000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6000000.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6000000.0</v>
       </c>
     </row>
   </sheetData>
@@ -602,20 +1081,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.66015625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.07421875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.4609375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6484375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.1875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.1875"/>
+    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.4609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.6484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.31640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,10 +1131,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1.18E8</v>
+        <v>1.2E8</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -664,10 +1143,10 @@
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.029483647E9</v>
+        <v>5.88E7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.147483647E9</v>
+        <v>1.788E8</v>
       </c>
     </row>
     <row r="3">
@@ -678,22 +1157,22 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>1.3E8</v>
+        <v>1.0E7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8E8</v>
+        <v>100000.0</v>
       </c>
       <c r="H3" t="n">
-        <v>9.1E8</v>
+        <v>1.01E7</v>
       </c>
     </row>
     <row r="4">
@@ -704,74 +1183,22 @@
         <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0E7</v>
+        <v>1.2E8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28E9</v>
+        <v>1200000.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.36E9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.5E7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.75E8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.5E8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.17E8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.02E8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.19E8</v>
+        <v>1.212E8</v>
       </c>
     </row>
   </sheetData>
@@ -781,14 +1208,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.578125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.95703125"/>
+    <col min="1" max="1" width="8.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>1.88E7</v>
+        <v>1.4E7</v>
       </c>
     </row>
     <row r="3">
@@ -817,18 +1244,90 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>2400000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1920000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.4E7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="n">
-        <v>7200000.0</v>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.4E7</v>
       </c>
     </row>
   </sheetData>
@@ -844,12 +1343,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.66015625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.3828125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.55078125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.828125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.46875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4609375"/>
+    <col min="1" max="1" width="4.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.46875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.4609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
